--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34329,7 +34329,7 @@
     </row>
     <row r="1257">
       <c r="A1257" s="1" t="n">
-        <v>45446.6494675926</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B1257" t="n">
         <v>90825</v>
@@ -34350,6 +34350,32 @@
         <v>428</v>
       </c>
       <c r="H1257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>45447.6494907407</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>67200</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1258" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34355,7 +34355,7 @@
     </row>
     <row r="1258">
       <c r="A1258" s="1" t="n">
-        <v>45447.6494907407</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B1258" t="n">
         <v>67200</v>
@@ -34376,6 +34376,32 @@
         <v>435</v>
       </c>
       <c r="H1258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>45448.6493865741</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>45675</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1259" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34381,7 +34381,7 @@
     </row>
     <row r="1259">
       <c r="A1259" s="1" t="n">
-        <v>45448.6493865741</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B1259" t="n">
         <v>45675</v>
@@ -34402,6 +34402,32 @@
         <v>421</v>
       </c>
       <c r="H1259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>45449.6451273148</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>38850</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1260" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34407,7 +34407,7 @@
     </row>
     <row r="1260">
       <c r="A1260" s="1" t="n">
-        <v>45449.6451273148</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B1260" t="n">
         <v>38850</v>
@@ -34428,6 +34428,32 @@
         <v>437</v>
       </c>
       <c r="H1260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>45450.6493055556</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>38850</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1261" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34433,7 +34433,7 @@
     </row>
     <row r="1261">
       <c r="A1261" s="1" t="n">
-        <v>45450.6493055556</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B1261" t="n">
         <v>38850</v>
@@ -34454,6 +34454,32 @@
         <v>438</v>
       </c>
       <c r="H1261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>45453.6495601852</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>49875</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1262" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34459,7 +34459,7 @@
     </row>
     <row r="1262">
       <c r="A1262" s="1" t="n">
-        <v>45453.6495601852</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B1262" t="n">
         <v>49875</v>
@@ -34480,6 +34480,32 @@
         <v>435</v>
       </c>
       <c r="H1262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>45455.6494791667</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>66675</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1263" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34485,27 +34485,79 @@
     </row>
     <row r="1263">
       <c r="A1263" s="1" t="n">
-        <v>45455.6494791667</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B1263" t="n">
+        <v>36225</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>2.01999998092651</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>2.03999996185303</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B1264" t="n">
         <v>66675</v>
       </c>
-      <c r="C1263" t="n">
+      <c r="C1264" t="n">
         <v>2.07999992370605</v>
       </c>
-      <c r="D1263" t="n">
+      <c r="D1264" t="n">
         <v>2.03999996185303</v>
       </c>
-      <c r="E1263" t="n">
+      <c r="E1264" t="n">
         <v>2.05999994277954</v>
       </c>
-      <c r="F1263" t="n">
+      <c r="F1264" t="n">
         <v>2.04999995231628</v>
       </c>
-      <c r="G1263" t="s">
+      <c r="G1264" t="s">
         <v>438</v>
       </c>
-      <c r="H1263" t="s">
+      <c r="H1264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>45456.6495138889</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>93450</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>382</v>
+      </c>
+      <c r="H1265" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34537,7 +34537,7 @@
     </row>
     <row r="1265">
       <c r="A1265" s="1" t="n">
-        <v>45456.6495138889</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B1265" t="n">
         <v>93450</v>
@@ -34549,7 +34549,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="E1265" t="n">
-        <v>2.05999994277954</v>
+        <v>2.04999995231628</v>
       </c>
       <c r="F1265" t="n">
         <v>2.09999990463257</v>
@@ -34558,6 +34558,32 @@
         <v>382</v>
       </c>
       <c r="H1265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>45457.6493055556</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>122850</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>397</v>
+      </c>
+      <c r="H1266" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34563,7 +34563,7 @@
     </row>
     <row r="1266">
       <c r="A1266" s="1" t="n">
-        <v>45457.6493055556</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B1266" t="n">
         <v>122850</v>
@@ -34584,6 +34584,32 @@
         <v>397</v>
       </c>
       <c r="H1266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>45460.6333101852</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>43050</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1267" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34589,7 +34589,7 @@
     </row>
     <row r="1267">
       <c r="A1267" s="1" t="n">
-        <v>45460.6333101852</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B1267" t="n">
         <v>43050</v>
@@ -34610,6 +34610,32 @@
         <v>398</v>
       </c>
       <c r="H1267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>45461.5986574074</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>87675</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1268" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34615,7 +34615,7 @@
     </row>
     <row r="1268">
       <c r="A1268" s="1" t="n">
-        <v>45461.5986574074</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B1268" t="n">
         <v>87675</v>
@@ -34636,6 +34636,32 @@
         <v>428</v>
       </c>
       <c r="H1268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>45462.6496180556</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>110250</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>2.19000005722046</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1269" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34641,7 +34641,7 @@
     </row>
     <row r="1269">
       <c r="A1269" s="1" t="n">
-        <v>45462.6496180556</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B1269" t="n">
         <v>110250</v>
@@ -34662,6 +34662,32 @@
         <v>419</v>
       </c>
       <c r="H1269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>45463.6497222222</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>2011275</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>2.45000004768372</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1270" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34667,7 +34667,7 @@
     </row>
     <row r="1270">
       <c r="A1270" s="1" t="n">
-        <v>45463.6497222222</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B1270" t="n">
         <v>2011275</v>
@@ -34688,6 +34688,32 @@
         <v>406</v>
       </c>
       <c r="H1270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>45464.6494675926</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>515025</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1271" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1332,6 +1332,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.94000005722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46000003814697</t>
   </si>
 </sst>
 </file>
@@ -34693,7 +34696,7 @@
     </row>
     <row r="1271">
       <c r="A1271" s="1" t="n">
-        <v>45464.6494675926</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B1271" t="n">
         <v>515025</v>
@@ -34714,6 +34717,32 @@
         <v>406</v>
       </c>
       <c r="H1271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>45467.6452546296</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>365925</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1272" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34722,7 +34722,7 @@
     </row>
     <row r="1272">
       <c r="A1272" s="1" t="n">
-        <v>45467.6452546296</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B1272" t="n">
         <v>365925</v>
@@ -34734,7 +34734,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="E1272" t="n">
-        <v>2.47000002861023</v>
+        <v>2.46000003814697</v>
       </c>
       <c r="F1272" t="n">
         <v>2.46000003814697</v>
@@ -34743,6 +34743,32 @@
         <v>440</v>
       </c>
       <c r="H1272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>45468.5980208333</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>204750</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1273" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34748,7 +34748,7 @@
     </row>
     <row r="1273">
       <c r="A1273" s="1" t="n">
-        <v>45468.5980208333</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B1273" t="n">
         <v>204750</v>
@@ -34760,7 +34760,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="E1273" t="n">
-        <v>2.47000002861023</v>
+        <v>2.46000003814697</v>
       </c>
       <c r="F1273" t="n">
         <v>2.46000003814697</v>
@@ -34769,6 +34769,32 @@
         <v>440</v>
       </c>
       <c r="H1273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>45469.6493402778</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>146475</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1274" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34774,7 +34774,7 @@
     </row>
     <row r="1274">
       <c r="A1274" s="1" t="n">
-        <v>45469.6493402778</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B1274" t="n">
         <v>146475</v>
@@ -34786,7 +34786,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="E1274" t="n">
-        <v>2.47000002861023</v>
+        <v>2.46000003814697</v>
       </c>
       <c r="F1274" t="n">
         <v>2.46000003814697</v>
@@ -34795,6 +34795,32 @@
         <v>440</v>
       </c>
       <c r="H1274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>45470.6438888889</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>474600</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1275" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34800,7 +34800,7 @@
     </row>
     <row r="1275">
       <c r="A1275" s="1" t="n">
-        <v>45470.6438888889</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B1275" t="n">
         <v>474600</v>
@@ -34821,6 +34821,32 @@
         <v>406</v>
       </c>
       <c r="H1275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>45471.6169560185</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>100800</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1276" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34826,7 +34826,7 @@
     </row>
     <row r="1276">
       <c r="A1276" s="1" t="n">
-        <v>45471.6169560185</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B1276" t="n">
         <v>100800</v>
@@ -34847,6 +34847,32 @@
         <v>406</v>
       </c>
       <c r="H1276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>45474.6493518519</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1277" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34852,7 +34852,7 @@
     </row>
     <row r="1277">
       <c r="A1277" s="1" t="n">
-        <v>45474.6493518519</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B1277" t="n">
         <v>45150</v>
@@ -34873,6 +34873,32 @@
         <v>406</v>
       </c>
       <c r="H1277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>45475.6296412037</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>83475</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1278" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34878,7 +34878,7 @@
     </row>
     <row r="1278">
       <c r="A1278" s="1" t="n">
-        <v>45475.6296412037</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B1278" t="n">
         <v>83475</v>
@@ -34899,6 +34899,32 @@
         <v>440</v>
       </c>
       <c r="H1278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>45476.6433796296</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>164325</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1279" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34904,7 +34904,7 @@
     </row>
     <row r="1279">
       <c r="A1279" s="1" t="n">
-        <v>45476.6433796296</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B1279" t="n">
         <v>164325</v>
@@ -34925,6 +34925,32 @@
         <v>406</v>
       </c>
       <c r="H1279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>45477.6494097222</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>146475</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1280" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34930,7 +34930,7 @@
     </row>
     <row r="1280">
       <c r="A1280" s="1" t="n">
-        <v>45477.6494097222</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B1280" t="n">
         <v>146475</v>
@@ -34951,6 +34951,32 @@
         <v>440</v>
       </c>
       <c r="H1280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>45478.6435300926</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>200550</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1281" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34956,7 +34956,7 @@
     </row>
     <row r="1281">
       <c r="A1281" s="1" t="n">
-        <v>45478.6435300926</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B1281" t="n">
         <v>200550</v>
@@ -34977,6 +34977,32 @@
         <v>406</v>
       </c>
       <c r="H1281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>45481.6194907407</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>226800</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1282" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -34982,10 +34982,10 @@
     </row>
     <row r="1282">
       <c r="A1282" s="1" t="n">
-        <v>45481.6194907407</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B1282" t="n">
-        <v>226800</v>
+        <v>227850</v>
       </c>
       <c r="C1282" t="n">
         <v>2.47000002861023</v>
@@ -35003,6 +35003,32 @@
         <v>440</v>
       </c>
       <c r="H1282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>45482.6495486111</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>137550</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1283" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35008,7 +35008,7 @@
     </row>
     <row r="1283">
       <c r="A1283" s="1" t="n">
-        <v>45482.6495486111</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B1283" t="n">
         <v>137550</v>
@@ -35029,6 +35029,32 @@
         <v>440</v>
       </c>
       <c r="H1283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>45483.6425115741</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>19950</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1284" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35034,7 +35034,7 @@
     </row>
     <row r="1284">
       <c r="A1284" s="1" t="n">
-        <v>45483.6425115741</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B1284" t="n">
         <v>19950</v>
@@ -35055,6 +35055,32 @@
         <v>406</v>
       </c>
       <c r="H1284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>45484.644212963</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>97125</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1285" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35060,7 +35060,7 @@
     </row>
     <row r="1285">
       <c r="A1285" s="1" t="n">
-        <v>45484.644212963</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B1285" t="n">
         <v>97125</v>
@@ -35081,6 +35081,32 @@
         <v>440</v>
       </c>
       <c r="H1285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>45485.6447569444</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>208950</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1286" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35086,7 +35086,7 @@
     </row>
     <row r="1286">
       <c r="A1286" s="1" t="n">
-        <v>45485.6447569444</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B1286" t="n">
         <v>208950</v>
@@ -35107,6 +35107,32 @@
         <v>440</v>
       </c>
       <c r="H1286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>45488.6429861111</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>20475</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1287" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35112,7 +35112,7 @@
     </row>
     <row r="1287">
       <c r="A1287" s="1" t="n">
-        <v>45488.6429861111</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B1287" t="n">
         <v>20475</v>
@@ -35133,6 +35133,32 @@
         <v>440</v>
       </c>
       <c r="H1287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>45489.6337384259</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>9975</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1288" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35138,7 +35138,7 @@
     </row>
     <row r="1288">
       <c r="A1288" s="1" t="n">
-        <v>45489.6337384259</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B1288" t="n">
         <v>9975</v>
@@ -35159,6 +35159,32 @@
         <v>440</v>
       </c>
       <c r="H1288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>45490.6385763889</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>35700</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1289" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35164,7 +35164,7 @@
     </row>
     <row r="1289">
       <c r="A1289" s="1" t="n">
-        <v>45490.6385763889</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B1289" t="n">
         <v>35700</v>
@@ -35185,6 +35185,32 @@
         <v>440</v>
       </c>
       <c r="H1289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>45491.6364351852</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>123375</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1290" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35190,7 +35190,7 @@
     </row>
     <row r="1290">
       <c r="A1290" s="1" t="n">
-        <v>45491.6364351852</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B1290" t="n">
         <v>123375</v>
@@ -35211,6 +35211,32 @@
         <v>440</v>
       </c>
       <c r="H1290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>45492.6127546296</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>32550</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1291" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35216,7 +35216,7 @@
     </row>
     <row r="1291">
       <c r="A1291" s="1" t="n">
-        <v>45492.6127546296</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B1291" t="n">
         <v>32550</v>
@@ -35237,6 +35237,32 @@
         <v>440</v>
       </c>
       <c r="H1291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>45495.5565046296</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>96600</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1292" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35242,7 +35242,7 @@
     </row>
     <row r="1292">
       <c r="A1292" s="1" t="n">
-        <v>45495.5565046296</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B1292" t="n">
         <v>96600</v>
@@ -35263,6 +35263,32 @@
         <v>440</v>
       </c>
       <c r="H1292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>45496.6495833333</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>266175</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>2.42000007629395</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1293" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35268,7 +35268,7 @@
     </row>
     <row r="1293">
       <c r="A1293" s="1" t="n">
-        <v>45496.6495833333</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B1293" t="n">
         <v>266175</v>
@@ -35289,6 +35289,32 @@
         <v>440</v>
       </c>
       <c r="H1293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>45497.637974537</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>53550</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1294" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35294,7 +35294,7 @@
     </row>
     <row r="1294">
       <c r="A1294" s="1" t="n">
-        <v>45497.637974537</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B1294" t="n">
         <v>53550</v>
@@ -35315,6 +35315,32 @@
         <v>440</v>
       </c>
       <c r="H1294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>45498.6305439815</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>141225</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>2.45000004768372</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1295" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35320,10 +35320,10 @@
     </row>
     <row r="1295">
       <c r="A1295" s="1" t="n">
-        <v>45498.6305439815</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B1295" t="n">
-        <v>141225</v>
+        <v>143325</v>
       </c>
       <c r="C1295" t="n">
         <v>2.47000002861023</v>
@@ -35341,6 +35341,32 @@
         <v>440</v>
       </c>
       <c r="H1295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>45499.6452893519</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>17325</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1296" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35346,7 +35346,7 @@
     </row>
     <row r="1296">
       <c r="A1296" s="1" t="n">
-        <v>45499.6452893519</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B1296" t="n">
         <v>17325</v>
@@ -35367,6 +35367,32 @@
         <v>406</v>
       </c>
       <c r="H1296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>45502.5894675926</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>184800</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>2.46000003814697</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1297" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1335,6 +1335,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.46000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48000001907349</t>
   </si>
 </sst>
 </file>
@@ -35372,7 +35375,7 @@
     </row>
     <row r="1297">
       <c r="A1297" s="1" t="n">
-        <v>45502.5894675926</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B1297" t="n">
         <v>184800</v>
@@ -35393,6 +35396,32 @@
         <v>406</v>
       </c>
       <c r="H1297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>45503.6434259259</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>116550</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1298" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.48000001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49000000953674</t>
   </si>
 </sst>
 </file>
@@ -35401,7 +35404,7 @@
     </row>
     <row r="1298">
       <c r="A1298" s="1" t="n">
-        <v>45503.6434259259</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B1298" t="n">
         <v>116550</v>
@@ -35422,6 +35425,32 @@
         <v>441</v>
       </c>
       <c r="H1298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>45504.6416782407</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>245700</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1299" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1341,6 +1341,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.49000000953674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
   </si>
 </sst>
 </file>
@@ -35430,7 +35433,7 @@
     </row>
     <row r="1299">
       <c r="A1299" s="1" t="n">
-        <v>45504.6416782407</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B1299" t="n">
         <v>245700</v>
@@ -35451,6 +35454,32 @@
         <v>442</v>
       </c>
       <c r="H1299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>45505.645150463</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>159075</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1300" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35459,7 +35459,7 @@
     </row>
     <row r="1300">
       <c r="A1300" s="1" t="n">
-        <v>45505.645150463</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B1300" t="n">
         <v>159075</v>
@@ -35480,6 +35480,32 @@
         <v>443</v>
       </c>
       <c r="H1300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>45506.6394444444</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>182700</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1301" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35485,7 +35485,7 @@
     </row>
     <row r="1301">
       <c r="A1301" s="1" t="n">
-        <v>45506.6394444444</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B1301" t="n">
         <v>182700</v>
@@ -35506,6 +35506,32 @@
         <v>442</v>
       </c>
       <c r="H1301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>45509.596400463</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>514500</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1302" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35511,10 +35511,10 @@
     </row>
     <row r="1302">
       <c r="A1302" s="1" t="n">
-        <v>45509.596400463</v>
+        <v>45509.6505671296</v>
       </c>
       <c r="B1302" t="n">
-        <v>514500</v>
+        <v>523425</v>
       </c>
       <c r="C1302" t="n">
         <v>2.49000000953674</v>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35511,10 +35511,10 @@
     </row>
     <row r="1302">
       <c r="A1302" s="1" t="n">
-        <v>45509.6505671296</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B1302" t="n">
-        <v>523425</v>
+        <v>523950</v>
       </c>
       <c r="C1302" t="n">
         <v>2.49000000953674</v>
@@ -35532,6 +35532,58 @@
         <v>442</v>
       </c>
       <c r="H1302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>187425</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>45511.6494560185</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>103950</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1304" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1344,6 +1344,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52999997138977</t>
   </si>
 </sst>
 </file>
@@ -35563,7 +35566,7 @@
     </row>
     <row r="1304">
       <c r="A1304" s="1" t="n">
-        <v>45511.6494560185</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B1304" t="n">
         <v>103950</v>
@@ -35584,6 +35587,32 @@
         <v>443</v>
       </c>
       <c r="H1304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>45512.6495717593</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>5394375</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1305" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1347,6 +1347,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.52999997138977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51999998092651</t>
   </si>
 </sst>
 </file>
@@ -35592,7 +35595,7 @@
     </row>
     <row r="1305">
       <c r="A1305" s="1" t="n">
-        <v>45512.6495717593</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B1305" t="n">
         <v>5394375</v>
@@ -35613,6 +35616,32 @@
         <v>444</v>
       </c>
       <c r="H1305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>45513.6407060185</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>759675</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1306" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35621,7 +35621,7 @@
     </row>
     <row r="1306">
       <c r="A1306" s="1" t="n">
-        <v>45513.6407060185</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B1306" t="n">
         <v>759675</v>
@@ -35642,6 +35642,32 @@
         <v>445</v>
       </c>
       <c r="H1306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>45516.6440046296</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>42000</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1307" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35647,7 +35647,7 @@
     </row>
     <row r="1307">
       <c r="A1307" s="1" t="n">
-        <v>45516.6440046296</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B1307" t="n">
         <v>42000</v>
@@ -35668,6 +35668,32 @@
         <v>444</v>
       </c>
       <c r="H1307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>45517.6414814815</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>44625</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1308" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35673,7 +35673,7 @@
     </row>
     <row r="1308">
       <c r="A1308" s="1" t="n">
-        <v>45517.6414814815</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B1308" t="n">
         <v>44625</v>
@@ -35694,6 +35694,32 @@
         <v>444</v>
       </c>
       <c r="H1308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>45518.6494907407</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>49875</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1309" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35699,7 +35699,7 @@
     </row>
     <row r="1309">
       <c r="A1309" s="1" t="n">
-        <v>45518.6494907407</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B1309" t="n">
         <v>49875</v>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35723,6 +35723,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>45520.6400925926</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>51450</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35725,7 +35725,7 @@
     </row>
     <row r="1310">
       <c r="A1310" s="1" t="n">
-        <v>45520.6400925926</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B1310" t="n">
         <v>51450</v>
@@ -35746,6 +35746,32 @@
         <v>445</v>
       </c>
       <c r="H1310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>45523.4946412037</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1311" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35751,7 +35751,7 @@
     </row>
     <row r="1311">
       <c r="A1311" s="1" t="n">
-        <v>45523.4946412037</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B1311" t="n">
         <v>4200</v>
@@ -35763,7 +35763,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="E1311" t="n">
-        <v>2.51999998092651</v>
+        <v>2.52999997138977</v>
       </c>
       <c r="F1311" t="n">
         <v>2.51999998092651</v>
@@ -35772,6 +35772,32 @@
         <v>445</v>
       </c>
       <c r="H1311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>45524.6454976852</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>79800</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1312" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35777,7 +35777,7 @@
     </row>
     <row r="1312">
       <c r="A1312" s="1" t="n">
-        <v>45524.6454976852</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B1312" t="n">
         <v>79800</v>
@@ -35798,6 +35798,32 @@
         <v>445</v>
       </c>
       <c r="H1312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>45525.6440972222</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>24150</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1313" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35803,7 +35803,7 @@
     </row>
     <row r="1313">
       <c r="A1313" s="1" t="n">
-        <v>45525.6440972222</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B1313" t="n">
         <v>24150</v>
@@ -35824,6 +35824,32 @@
         <v>445</v>
       </c>
       <c r="H1313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>45526.6339467593</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>30975</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1314" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35829,7 +35829,7 @@
     </row>
     <row r="1314">
       <c r="A1314" s="1" t="n">
-        <v>45526.6339467593</v>
+        <v>45526.2916666667</v>
       </c>
       <c r="B1314" t="n">
         <v>30975</v>
@@ -35850,6 +35850,32 @@
         <v>445</v>
       </c>
       <c r="H1314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>45527.6192476852</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>29400</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1315" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35855,7 +35855,7 @@
     </row>
     <row r="1315">
       <c r="A1315" s="1" t="n">
-        <v>45527.6192476852</v>
+        <v>45527.2916666667</v>
       </c>
       <c r="B1315" t="n">
         <v>29400</v>
@@ -35876,6 +35876,32 @@
         <v>444</v>
       </c>
       <c r="H1315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>45530.6318171296</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1316" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35881,7 +35881,7 @@
     </row>
     <row r="1316">
       <c r="A1316" s="1" t="n">
-        <v>45530.6318171296</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B1316" t="n">
         <v>6825</v>
@@ -35902,6 +35902,32 @@
         <v>445</v>
       </c>
       <c r="H1316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>45531.5721527778</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>14700</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1317" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35907,7 +35907,7 @@
     </row>
     <row r="1317">
       <c r="A1317" s="1" t="n">
-        <v>45531.5721527778</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B1317" t="n">
         <v>14700</v>
@@ -35928,6 +35928,32 @@
         <v>445</v>
       </c>
       <c r="H1317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>45532.6079050926</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1318" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35933,7 +35933,7 @@
     </row>
     <row r="1318">
       <c r="A1318" s="1" t="n">
-        <v>45532.6079050926</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B1318" t="n">
         <v>12600</v>
@@ -35954,6 +35954,32 @@
         <v>445</v>
       </c>
       <c r="H1318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>45533.5938657407</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>76650</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1319" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -1357,7 +1357,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1395,7 +1395,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35959,13 +35959,13 @@
     </row>
     <row r="1319">
       <c r="A1319" s="1" t="n">
-        <v>45533.5938657407</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B1319" t="n">
-        <v>76650</v>
+        <v>78750</v>
       </c>
       <c r="C1319" t="n">
-        <v>2.50999999046326</v>
+        <v>2.51999998092651</v>
       </c>
       <c r="D1319" t="n">
         <v>2.50999999046326</v>
@@ -35980,6 +35980,32 @@
         <v>445</v>
       </c>
       <c r="H1319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>45534.6494097222</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>87150</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1320" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -35985,7 +35985,7 @@
     </row>
     <row r="1320">
       <c r="A1320" s="1" t="n">
-        <v>45534.6494097222</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B1320" t="n">
         <v>87150</v>
@@ -36006,6 +36006,32 @@
         <v>445</v>
       </c>
       <c r="H1320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>45537.6510069444</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>408450</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1321" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36011,7 +36011,7 @@
     </row>
     <row r="1321">
       <c r="A1321" s="1" t="n">
-        <v>45537.6510069444</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B1321" t="n">
         <v>408450</v>
@@ -36032,6 +36032,32 @@
         <v>444</v>
       </c>
       <c r="H1321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>45538.6313194444</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1322" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36037,7 +36037,7 @@
     </row>
     <row r="1322">
       <c r="A1322" s="1" t="n">
-        <v>45538.6313194444</v>
+        <v>45538.2916666667</v>
       </c>
       <c r="B1322" t="n">
         <v>10500</v>
@@ -36058,6 +36058,32 @@
         <v>445</v>
       </c>
       <c r="H1322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>45539.3917476852</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1323" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36063,7 +36063,7 @@
     </row>
     <row r="1323">
       <c r="A1323" s="1" t="n">
-        <v>45539.3917476852</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B1323" t="n">
         <v>6825</v>
@@ -36084,6 +36084,32 @@
         <v>445</v>
       </c>
       <c r="H1323" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>45540.6453703704</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>168000</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1324" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36089,7 +36089,7 @@
     </row>
     <row r="1324">
       <c r="A1324" s="1" t="n">
-        <v>45540.6453703704</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B1324" t="n">
         <v>168000</v>
@@ -36110,6 +36110,32 @@
         <v>444</v>
       </c>
       <c r="H1324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>45541.6493981481</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>155925</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1325" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36115,7 +36115,7 @@
     </row>
     <row r="1325">
       <c r="A1325" s="1" t="n">
-        <v>45541.6493981481</v>
+        <v>45541.2916666667</v>
       </c>
       <c r="B1325" t="n">
         <v>155925</v>
@@ -36136,6 +36136,32 @@
         <v>444</v>
       </c>
       <c r="H1325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>45544.5425231481</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>15750</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1326" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36141,7 +36141,7 @@
     </row>
     <row r="1326">
       <c r="A1326" s="1" t="n">
-        <v>45544.5425231481</v>
+        <v>45544.2916666667</v>
       </c>
       <c r="B1326" t="n">
         <v>15750</v>
@@ -36162,6 +36162,32 @@
         <v>444</v>
       </c>
       <c r="H1326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>45545.640462963</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>463575</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1327" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36167,7 +36167,7 @@
     </row>
     <row r="1327">
       <c r="A1327" s="1" t="n">
-        <v>45545.640462963</v>
+        <v>45545.2916666667</v>
       </c>
       <c r="B1327" t="n">
         <v>463575</v>
@@ -36188,6 +36188,32 @@
         <v>444</v>
       </c>
       <c r="H1327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>45546.6425810185</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>302925</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1328" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36193,7 +36193,7 @@
     </row>
     <row r="1328">
       <c r="A1328" s="1" t="n">
-        <v>45546.6425810185</v>
+        <v>45546.2916666667</v>
       </c>
       <c r="B1328" t="n">
         <v>302925</v>
@@ -36214,6 +36214,32 @@
         <v>444</v>
       </c>
       <c r="H1328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>45547.6494444444</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>117600</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1329" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36219,7 +36219,7 @@
     </row>
     <row r="1329">
       <c r="A1329" s="1" t="n">
-        <v>45547.6494444444</v>
+        <v>45547.2916666667</v>
       </c>
       <c r="B1329" t="n">
         <v>117600</v>
@@ -36240,6 +36240,32 @@
         <v>444</v>
       </c>
       <c r="H1329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>45548.6400347222</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>221025</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1330" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36245,7 +36245,7 @@
     </row>
     <row r="1330">
       <c r="A1330" s="1" t="n">
-        <v>45548.6400347222</v>
+        <v>45548.2916666667</v>
       </c>
       <c r="B1330" t="n">
         <v>221025</v>
@@ -36266,6 +36266,32 @@
         <v>444</v>
       </c>
       <c r="H1330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>45551.6039930556</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>65625</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1331" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36271,7 +36271,7 @@
     </row>
     <row r="1331">
       <c r="A1331" s="1" t="n">
-        <v>45551.6039930556</v>
+        <v>45551.2916666667</v>
       </c>
       <c r="B1331" t="n">
         <v>65625</v>
@@ -36292,6 +36292,32 @@
         <v>444</v>
       </c>
       <c r="H1331" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>45552.6151851852</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>36750</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1332" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36297,7 +36297,7 @@
     </row>
     <row r="1332">
       <c r="A1332" s="1" t="n">
-        <v>45552.6151851852</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B1332" t="n">
         <v>36750</v>
@@ -36318,6 +36318,32 @@
         <v>444</v>
       </c>
       <c r="H1332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>45553.5552777778</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>129675</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1333" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1350,6 +1350,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.51999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53999996185303</t>
   </si>
 </sst>
 </file>
@@ -36323,7 +36326,7 @@
     </row>
     <row r="1333">
       <c r="A1333" s="1" t="n">
-        <v>45553.5552777778</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B1333" t="n">
         <v>129675</v>
@@ -36344,6 +36347,32 @@
         <v>444</v>
       </c>
       <c r="H1333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>45554.645150463</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>244650</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1334" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36352,7 +36352,7 @@
     </row>
     <row r="1334">
       <c r="A1334" s="1" t="n">
-        <v>45554.645150463</v>
+        <v>45554.2916666667</v>
       </c>
       <c r="B1334" t="n">
         <v>244650</v>
@@ -36373,6 +36373,32 @@
         <v>446</v>
       </c>
       <c r="H1334" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>45555.6493865741</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>61950</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1335" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36378,13 +36378,13 @@
     </row>
     <row r="1335">
       <c r="A1335" s="1" t="n">
-        <v>45555.6493865741</v>
+        <v>45555.2916666667</v>
       </c>
       <c r="B1335" t="n">
         <v>61950</v>
       </c>
       <c r="C1335" t="n">
-        <v>2.52999997138977</v>
+        <v>2.53999996185303</v>
       </c>
       <c r="D1335" t="n">
         <v>2.52999997138977</v>
@@ -36399,6 +36399,32 @@
         <v>446</v>
       </c>
       <c r="H1335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>45558.570150463</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>50400</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1336" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36404,7 +36404,7 @@
     </row>
     <row r="1336">
       <c r="A1336" s="1" t="n">
-        <v>45558.570150463</v>
+        <v>45558.2916666667</v>
       </c>
       <c r="B1336" t="n">
         <v>50400</v>
@@ -36425,6 +36425,32 @@
         <v>444</v>
       </c>
       <c r="H1336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>45559.6496296296</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>240450</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1337" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36430,7 +36430,7 @@
     </row>
     <row r="1337">
       <c r="A1337" s="1" t="n">
-        <v>45559.6496296296</v>
+        <v>45559.2916666667</v>
       </c>
       <c r="B1337" t="n">
         <v>240450</v>
@@ -36451,6 +36451,32 @@
         <v>444</v>
       </c>
       <c r="H1337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>45560.5791319444</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1338" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36456,7 +36456,7 @@
     </row>
     <row r="1338">
       <c r="A1338" s="1" t="n">
-        <v>45560.5791319444</v>
+        <v>45560.2916666667</v>
       </c>
       <c r="B1338" t="n">
         <v>10500</v>
@@ -36477,6 +36477,32 @@
         <v>444</v>
       </c>
       <c r="H1338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>45561.6400347222</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>21525</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1339" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36482,7 +36482,7 @@
     </row>
     <row r="1339">
       <c r="A1339" s="1" t="n">
-        <v>45561.6400347222</v>
+        <v>45561.2916666667</v>
       </c>
       <c r="B1339" t="n">
         <v>21525</v>
@@ -36503,6 +36503,32 @@
         <v>445</v>
       </c>
       <c r="H1339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>45562.6369907407</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>11025</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1340" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36508,7 +36508,7 @@
     </row>
     <row r="1340">
       <c r="A1340" s="1" t="n">
-        <v>45562.6369907407</v>
+        <v>45562.2916666667</v>
       </c>
       <c r="B1340" t="n">
         <v>11025</v>
@@ -36529,6 +36529,32 @@
         <v>445</v>
       </c>
       <c r="H1340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>45565.6494560185</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>19950</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1341" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36534,7 +36534,7 @@
     </row>
     <row r="1341">
       <c r="A1341" s="1" t="n">
-        <v>45565.6494560185</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B1341" t="n">
         <v>19950</v>
@@ -36555,6 +36555,32 @@
         <v>444</v>
       </c>
       <c r="H1341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>45566.5579398148</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>3150</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1342" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36560,7 +36560,7 @@
     </row>
     <row r="1342">
       <c r="A1342" s="1" t="n">
-        <v>45566.5579398148</v>
+        <v>45566.2916666667</v>
       </c>
       <c r="B1342" t="n">
         <v>3150</v>
@@ -36581,6 +36581,32 @@
         <v>445</v>
       </c>
       <c r="H1342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>45567.4684837963</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1343" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36586,7 +36586,7 @@
     </row>
     <row r="1343">
       <c r="A1343" s="1" t="n">
-        <v>45567.4684837963</v>
+        <v>45567.2916666667</v>
       </c>
       <c r="B1343" t="n">
         <v>1050</v>
@@ -36607,6 +36607,32 @@
         <v>444</v>
       </c>
       <c r="H1343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>45568.6376736111</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>6300</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1344" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36612,7 +36612,7 @@
     </row>
     <row r="1344">
       <c r="A1344" s="1" t="n">
-        <v>45568.6376736111</v>
+        <v>45568.2916666667</v>
       </c>
       <c r="B1344" t="n">
         <v>6300</v>
@@ -36633,6 +36633,32 @@
         <v>445</v>
       </c>
       <c r="H1344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>45569.6494560185</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>100275</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1345" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36638,7 +36638,7 @@
     </row>
     <row r="1345">
       <c r="A1345" s="1" t="n">
-        <v>45569.6494560185</v>
+        <v>45569.2916666667</v>
       </c>
       <c r="B1345" t="n">
         <v>100275</v>
@@ -36659,6 +36659,32 @@
         <v>444</v>
       </c>
       <c r="H1345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>45572.6410069444</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>113400</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1346" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36664,7 +36664,7 @@
     </row>
     <row r="1346">
       <c r="A1346" s="1" t="n">
-        <v>45572.6410069444</v>
+        <v>45572.2916666667</v>
       </c>
       <c r="B1346" t="n">
         <v>113400</v>
@@ -36685,6 +36685,32 @@
         <v>445</v>
       </c>
       <c r="H1346" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>45573.6493171296</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>258300</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1347" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36690,7 +36690,7 @@
     </row>
     <row r="1347">
       <c r="A1347" s="1" t="n">
-        <v>45573.6493171296</v>
+        <v>45573.2916666667</v>
       </c>
       <c r="B1347" t="n">
         <v>258300</v>
@@ -36711,6 +36711,32 @@
         <v>445</v>
       </c>
       <c r="H1347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>45574.5989351852</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>40950</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1348" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36716,7 +36716,7 @@
     </row>
     <row r="1348">
       <c r="A1348" s="1" t="n">
-        <v>45574.5989351852</v>
+        <v>45574.2916666667</v>
       </c>
       <c r="B1348" t="n">
         <v>40950</v>
@@ -36737,6 +36737,32 @@
         <v>445</v>
       </c>
       <c r="H1348" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>45575.623900463</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>88725</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1349" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36742,7 +36742,7 @@
     </row>
     <row r="1349">
       <c r="A1349" s="1" t="n">
-        <v>45575.623900463</v>
+        <v>45575.2916666667</v>
       </c>
       <c r="B1349" t="n">
         <v>88725</v>
@@ -36763,6 +36763,32 @@
         <v>445</v>
       </c>
       <c r="H1349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>45576.6428125</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>141225</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1350" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36768,7 +36768,7 @@
     </row>
     <row r="1350">
       <c r="A1350" s="1" t="n">
-        <v>45576.6428125</v>
+        <v>45576.2916666667</v>
       </c>
       <c r="B1350" t="n">
         <v>141225</v>
@@ -36789,6 +36789,32 @@
         <v>444</v>
       </c>
       <c r="H1350" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>45579.6360763889</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>32025</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1351" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36794,7 +36794,7 @@
     </row>
     <row r="1351">
       <c r="A1351" s="1" t="n">
-        <v>45579.6360763889</v>
+        <v>45579.2916666667</v>
       </c>
       <c r="B1351" t="n">
         <v>32025</v>
@@ -36815,6 +36815,32 @@
         <v>444</v>
       </c>
       <c r="H1351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>45580.5127314815</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>27825</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1352" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36820,7 +36820,7 @@
     </row>
     <row r="1352">
       <c r="A1352" s="1" t="n">
-        <v>45580.5127314815</v>
+        <v>45580.2916666667</v>
       </c>
       <c r="B1352" t="n">
         <v>27825</v>
@@ -36841,6 +36841,32 @@
         <v>444</v>
       </c>
       <c r="H1352" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>45581.6426041667</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>47775</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1353" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36846,7 +36846,7 @@
     </row>
     <row r="1353">
       <c r="A1353" s="1" t="n">
-        <v>45581.6426041667</v>
+        <v>45581.2916666667</v>
       </c>
       <c r="B1353" t="n">
         <v>47775</v>
@@ -36867,6 +36867,32 @@
         <v>444</v>
       </c>
       <c r="H1353" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>45582.6435416667</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>56175</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1354" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36872,7 +36872,7 @@
     </row>
     <row r="1354">
       <c r="A1354" s="1" t="n">
-        <v>45582.6435416667</v>
+        <v>45582.2916666667</v>
       </c>
       <c r="B1354" t="n">
         <v>56175</v>
@@ -36893,6 +36893,32 @@
         <v>444</v>
       </c>
       <c r="H1354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>45583.6506944444</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>34650</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1355" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36898,7 +36898,7 @@
     </row>
     <row r="1355">
       <c r="A1355" s="1" t="n">
-        <v>45583.6506944444</v>
+        <v>45583.2916666667</v>
       </c>
       <c r="B1355" t="n">
         <v>34650</v>
@@ -36919,6 +36919,32 @@
         <v>444</v>
       </c>
       <c r="H1355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>45586.6260416667</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>84525</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1356" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36924,10 +36924,10 @@
     </row>
     <row r="1356">
       <c r="A1356" s="1" t="n">
-        <v>45586.6260416667</v>
+        <v>45586.2916666667</v>
       </c>
       <c r="B1356" t="n">
-        <v>84525</v>
+        <v>86625</v>
       </c>
       <c r="C1356" t="n">
         <v>2.53999996185303</v>
@@ -36945,6 +36945,32 @@
         <v>444</v>
       </c>
       <c r="H1356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>45587.5795138889</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>22575</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1357" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36950,10 +36950,10 @@
     </row>
     <row r="1357">
       <c r="A1357" s="1" t="n">
-        <v>45587.5795138889</v>
+        <v>45588.6493171296</v>
       </c>
       <c r="B1357" t="n">
-        <v>22575</v>
+        <v>334950</v>
       </c>
       <c r="C1357" t="n">
         <v>2.53999996185303</v>
@@ -36962,13 +36962,13 @@
         <v>2.52999997138977</v>
       </c>
       <c r="E1357" t="n">
-        <v>2.52999997138977</v>
+        <v>2.53999996185303</v>
       </c>
       <c r="F1357" t="n">
-        <v>2.52999997138977</v>
+        <v>2.53999996185303</v>
       </c>
       <c r="G1357" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -36950,10 +36950,10 @@
     </row>
     <row r="1357">
       <c r="A1357" s="1" t="n">
-        <v>45588.6493171296</v>
+        <v>45587.2916666667</v>
       </c>
       <c r="B1357" t="n">
-        <v>334950</v>
+        <v>22575</v>
       </c>
       <c r="C1357" t="n">
         <v>2.53999996185303</v>
@@ -36962,15 +36962,67 @@
         <v>2.52999997138977</v>
       </c>
       <c r="E1357" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>45588.2916666667</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>334950</v>
+      </c>
+      <c r="C1358" t="n">
         <v>2.53999996185303</v>
       </c>
-      <c r="F1357" t="n">
+      <c r="D1358" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1358" t="n">
         <v>2.53999996185303</v>
       </c>
-      <c r="G1357" t="s">
+      <c r="F1358" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="G1358" t="s">
         <v>446</v>
       </c>
-      <c r="H1357" t="s">
+      <c r="H1358" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>45589.6455671296</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>141225</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1359" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37002,7 +37002,7 @@
     </row>
     <row r="1359">
       <c r="A1359" s="1" t="n">
-        <v>45589.6455671296</v>
+        <v>45589.2916666667</v>
       </c>
       <c r="B1359" t="n">
         <v>141225</v>
@@ -37023,6 +37023,32 @@
         <v>444</v>
       </c>
       <c r="H1359" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="n">
+        <v>45590.6493055556</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>74550</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1360" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37028,7 +37028,7 @@
     </row>
     <row r="1360">
       <c r="A1360" s="1" t="n">
-        <v>45590.6493055556</v>
+        <v>45590.2916666667</v>
       </c>
       <c r="B1360" t="n">
         <v>74550</v>
@@ -37040,7 +37040,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="E1360" t="n">
-        <v>2.53999996185303</v>
+        <v>2.52999997138977</v>
       </c>
       <c r="F1360" t="n">
         <v>2.52999997138977</v>
@@ -37049,6 +37049,32 @@
         <v>444</v>
       </c>
       <c r="H1360" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="n">
+        <v>45593.6912731481</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>354375</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1361" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37054,7 +37054,7 @@
     </row>
     <row r="1361">
       <c r="A1361" s="1" t="n">
-        <v>45593.6912731481</v>
+        <v>45593.3333333333</v>
       </c>
       <c r="B1361" t="n">
         <v>354375</v>
@@ -37075,6 +37075,32 @@
         <v>444</v>
       </c>
       <c r="H1361" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="n">
+        <v>45594.5522569444</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>44100</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1362" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37080,7 +37080,7 @@
     </row>
     <row r="1362">
       <c r="A1362" s="1" t="n">
-        <v>45594.5522569444</v>
+        <v>45594.3333333333</v>
       </c>
       <c r="B1362" t="n">
         <v>44100</v>
@@ -37101,6 +37101,32 @@
         <v>444</v>
       </c>
       <c r="H1362" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="n">
+        <v>45595.6746064815</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>72450</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1363" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37106,7 +37106,7 @@
     </row>
     <row r="1363">
       <c r="A1363" s="1" t="n">
-        <v>45595.6746064815</v>
+        <v>45595.3333333333</v>
       </c>
       <c r="B1363" t="n">
         <v>72450</v>
@@ -37127,6 +37127,32 @@
         <v>444</v>
       </c>
       <c r="H1363" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>45596.6821064815</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>54075</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1364" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37132,7 +37132,7 @@
     </row>
     <row r="1364">
       <c r="A1364" s="1" t="n">
-        <v>45596.6821064815</v>
+        <v>45596.3333333333</v>
       </c>
       <c r="B1364" t="n">
         <v>54075</v>
@@ -37153,6 +37153,58 @@
         <v>444</v>
       </c>
       <c r="H1364" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>11550</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="n">
+        <v>45600.6912037037</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>1518300</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1366" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37184,7 +37184,7 @@
     </row>
     <row r="1366">
       <c r="A1366" s="1" t="n">
-        <v>45600.6912037037</v>
+        <v>45600.3333333333</v>
       </c>
       <c r="B1366" t="n">
         <v>1518300</v>
@@ -37205,6 +37205,32 @@
         <v>444</v>
       </c>
       <c r="H1366" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="n">
+        <v>45601.6750231481</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>975975</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1367" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1353,6 +1353,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.53999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50999999046326</t>
   </si>
 </sst>
 </file>
@@ -37210,7 +37213,7 @@
     </row>
     <row r="1367">
       <c r="A1367" s="1" t="n">
-        <v>45601.6750231481</v>
+        <v>45601.3333333333</v>
       </c>
       <c r="B1367" t="n">
         <v>975975</v>
@@ -37231,6 +37234,58 @@
         <v>445</v>
       </c>
       <c r="H1367" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="n">
+        <v>45602.3333333333</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>74025</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="n">
+        <v>45603.6911111111</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>78225</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1369" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37265,7 +37265,7 @@
     </row>
     <row r="1369">
       <c r="A1369" s="1" t="n">
-        <v>45603.6911111111</v>
+        <v>45603.3333333333</v>
       </c>
       <c r="B1369" t="n">
         <v>78225</v>
@@ -37286,6 +37286,32 @@
         <v>444</v>
       </c>
       <c r="H1369" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="n">
+        <v>45604.6774537037</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>80850</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1370" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37291,7 +37291,7 @@
     </row>
     <row r="1370">
       <c r="A1370" s="1" t="n">
-        <v>45604.6774537037</v>
+        <v>45604.3333333333</v>
       </c>
       <c r="B1370" t="n">
         <v>80850</v>
@@ -37312,6 +37312,32 @@
         <v>444</v>
       </c>
       <c r="H1370" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="n">
+        <v>45607.6755324074</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>531825</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1371" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37317,7 +37317,7 @@
     </row>
     <row r="1371">
       <c r="A1371" s="1" t="n">
-        <v>45607.6755324074</v>
+        <v>45607.3333333333</v>
       </c>
       <c r="B1371" t="n">
         <v>531825</v>
@@ -37338,6 +37338,32 @@
         <v>444</v>
       </c>
       <c r="H1371" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="n">
+        <v>45608.672662037</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>56700</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1372" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37343,7 +37343,7 @@
     </row>
     <row r="1372">
       <c r="A1372" s="1" t="n">
-        <v>45608.672662037</v>
+        <v>45608.3333333333</v>
       </c>
       <c r="B1372" t="n">
         <v>56700</v>
@@ -37364,6 +37364,32 @@
         <v>444</v>
       </c>
       <c r="H1372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="n">
+        <v>45609.6938541667</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>113925</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1373" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37369,7 +37369,7 @@
     </row>
     <row r="1373">
       <c r="A1373" s="1" t="n">
-        <v>45609.6938541667</v>
+        <v>45609.3333333333</v>
       </c>
       <c r="B1373" t="n">
         <v>113925</v>
@@ -37390,6 +37390,32 @@
         <v>444</v>
       </c>
       <c r="H1373" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="n">
+        <v>45610.6911226852</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>44625</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1374" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37395,7 +37395,7 @@
     </row>
     <row r="1374">
       <c r="A1374" s="1" t="n">
-        <v>45610.6911226852</v>
+        <v>45610.3333333333</v>
       </c>
       <c r="B1374" t="n">
         <v>44625</v>
@@ -37416,6 +37416,32 @@
         <v>444</v>
       </c>
       <c r="H1374" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="n">
+        <v>45611.5330439815</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>14175</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1375" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37421,7 +37421,7 @@
     </row>
     <row r="1375">
       <c r="A1375" s="1" t="n">
-        <v>45611.5330439815</v>
+        <v>45611.3333333333</v>
       </c>
       <c r="B1375" t="n">
         <v>14175</v>
@@ -37442,6 +37442,32 @@
         <v>444</v>
       </c>
       <c r="H1375" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="n">
+        <v>45614.4894097222</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>7350</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1376" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37447,7 +37447,7 @@
     </row>
     <row r="1376">
       <c r="A1376" s="1" t="n">
-        <v>45614.4894097222</v>
+        <v>45614.3333333333</v>
       </c>
       <c r="B1376" t="n">
         <v>7350</v>
@@ -37468,6 +37468,32 @@
         <v>444</v>
       </c>
       <c r="H1376" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="n">
+        <v>45615.6794328704</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>4200</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1377" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37473,7 +37473,7 @@
     </row>
     <row r="1377">
       <c r="A1377" s="1" t="n">
-        <v>45615.6794328704</v>
+        <v>45615.3333333333</v>
       </c>
       <c r="B1377" t="n">
         <v>4200</v>
@@ -37494,6 +37494,32 @@
         <v>444</v>
       </c>
       <c r="H1377" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="n">
+        <v>45616.5723263889</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>24675</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1378" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37499,7 +37499,7 @@
     </row>
     <row r="1378">
       <c r="A1378" s="1" t="n">
-        <v>45616.5723263889</v>
+        <v>45616.3333333333</v>
       </c>
       <c r="B1378" t="n">
         <v>24675</v>
@@ -37520,6 +37520,32 @@
         <v>444</v>
       </c>
       <c r="H1378" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="n">
+        <v>45617.6282638889</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>14700</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1379" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37525,7 +37525,7 @@
     </row>
     <row r="1379">
       <c r="A1379" s="1" t="n">
-        <v>45617.6282638889</v>
+        <v>45617.3333333333</v>
       </c>
       <c r="B1379" t="n">
         <v>14700</v>
@@ -37546,6 +37546,32 @@
         <v>444</v>
       </c>
       <c r="H1379" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="n">
+        <v>45618.4963310185</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>6825</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1380" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37551,7 +37551,7 @@
     </row>
     <row r="1380">
       <c r="A1380" s="1" t="n">
-        <v>45618.4963310185</v>
+        <v>45618.3333333333</v>
       </c>
       <c r="B1380" t="n">
         <v>6825</v>
@@ -37572,6 +37572,32 @@
         <v>444</v>
       </c>
       <c r="H1380" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="n">
+        <v>45621.4990740741</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>525</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>446</v>
+      </c>
+      <c r="H1381" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37577,7 +37577,7 @@
     </row>
     <row r="1381">
       <c r="A1381" s="1" t="n">
-        <v>45621.4990740741</v>
+        <v>45621.3333333333</v>
       </c>
       <c r="B1381" t="n">
         <v>525</v>
@@ -37598,6 +37598,32 @@
         <v>446</v>
       </c>
       <c r="H1381" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="n">
+        <v>45622.6807060185</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>2.53999996185303</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1382" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37603,7 +37603,7 @@
     </row>
     <row r="1382">
       <c r="A1382" s="1" t="n">
-        <v>45622.6807060185</v>
+        <v>45622.3333333333</v>
       </c>
       <c r="B1382" t="n">
         <v>12600</v>
@@ -37624,6 +37624,32 @@
         <v>444</v>
       </c>
       <c r="H1382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>45623.4149768519</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>3150</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1383" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37629,7 +37629,7 @@
     </row>
     <row r="1383">
       <c r="A1383" s="1" t="n">
-        <v>45623.4149768519</v>
+        <v>45623.3333333333</v>
       </c>
       <c r="B1383" t="n">
         <v>3150</v>
@@ -37650,6 +37650,32 @@
         <v>445</v>
       </c>
       <c r="H1383" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="n">
+        <v>45624.4610069444</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>7875</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>2.50999999046326</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1384" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37655,7 +37655,7 @@
     </row>
     <row r="1384">
       <c r="A1384" s="1" t="n">
-        <v>45624.4610069444</v>
+        <v>45624.3333333333</v>
       </c>
       <c r="B1384" t="n">
         <v>7875</v>
@@ -37676,6 +37676,32 @@
         <v>445</v>
       </c>
       <c r="H1384" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="n">
+        <v>45625.5860069444</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1385" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37681,10 +37681,10 @@
     </row>
     <row r="1385">
       <c r="A1385" s="1" t="n">
-        <v>45625.5860069444</v>
+        <v>45625.3333333333</v>
       </c>
       <c r="B1385" t="n">
-        <v>2100</v>
+        <v>3675</v>
       </c>
       <c r="C1385" t="n">
         <v>2.51999998092651</v>
@@ -37702,6 +37702,32 @@
         <v>445</v>
       </c>
       <c r="H1385" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="n">
+        <v>45628.3401388889</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>3150</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>2.52999997138977</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1386" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37707,7 +37707,7 @@
     </row>
     <row r="1386">
       <c r="A1386" s="1" t="n">
-        <v>45628.3401388889</v>
+        <v>45628.3333333333</v>
       </c>
       <c r="B1386" t="n">
         <v>3150</v>
@@ -37728,6 +37728,32 @@
         <v>444</v>
       </c>
       <c r="H1386" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="n">
+        <v>45629.6600925926</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>9975</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1387" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37733,7 +37733,7 @@
     </row>
     <row r="1387">
       <c r="A1387" s="1" t="n">
-        <v>45629.6600925926</v>
+        <v>45629.3333333333</v>
       </c>
       <c r="B1387" t="n">
         <v>9975</v>
@@ -37754,6 +37754,32 @@
         <v>445</v>
       </c>
       <c r="H1387" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="n">
+        <v>45630.6557986111</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>2.58999991416931</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1388" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37759,7 +37759,7 @@
     </row>
     <row r="1388">
       <c r="A1388" s="1" t="n">
-        <v>45630.6557986111</v>
+        <v>45630.3333333333</v>
       </c>
       <c r="B1388" t="n">
         <v>12600</v>
@@ -37780,6 +37780,32 @@
         <v>445</v>
       </c>
       <c r="H1388" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="n">
+        <v>45631.4258217593</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1389" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37785,7 +37785,7 @@
     </row>
     <row r="1389">
       <c r="A1389" s="1" t="n">
-        <v>45631.4258217593</v>
+        <v>45631.3333333333</v>
       </c>
       <c r="B1389" t="n">
         <v>1050</v>
@@ -37806,6 +37806,32 @@
         <v>445</v>
       </c>
       <c r="H1389" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="n">
+        <v>45632.3335648148</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1390" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37811,7 +37811,7 @@
     </row>
     <row r="1390">
       <c r="A1390" s="1" t="n">
-        <v>45632.3335648148</v>
+        <v>45632.3333333333</v>
       </c>
       <c r="B1390" t="n">
         <v>2100</v>

--- a/data/RLT.MI.xlsx
+++ b/data/RLT.MI.xlsx
@@ -37835,6 +37835,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="n">
+        <v>45635.3333333333</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>2.51999998092651</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
